--- a/public/doc/물품구매요청서.xlsx
+++ b/public/doc/물품구매요청서.xlsx
@@ -654,11 +654,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
@@ -669,72 +672,108 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,6 +783,33 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,82 +831,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1170,144 +1170,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="56" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="49" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="50"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="48"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="70"/>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="18" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="5"/>
@@ -1328,52 +1328,52 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="66" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42" t="s">
+      <c r="K8" s="52"/>
+      <c r="L8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42" t="s">
+      <c r="M8" s="52"/>
+      <c r="N8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="79"/>
     </row>
     <row r="9" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -1414,172 +1414,172 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="35"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="2"/>
@@ -1620,78 +1620,78 @@
       <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25"/>
     </row>
     <row r="24" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="27" spans="1:16" ht="23.45" customHeight="1"/>
     <row r="28" spans="1:16" ht="23.45" customHeight="1"/>
@@ -1702,13 +1702,38 @@
     <protectedRange sqref="C5:E5 H5:J5 M5:P5 C6:P6 N7 A9:P9 D12:P14 D15:H15 D16:G16 D17:H20 I15:I20 K15:P20 J15:J18 J20" name="범위1"/>
   </protectedRanges>
   <mergeCells count="55">
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D13:P13"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="A18:C20"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I1:J1"/>
@@ -1725,38 +1750,13 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="A18:C20"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="A15:C17"/>
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D13:P13"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.6692913385826772" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -1764,7 +1764,7 @@
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;G&amp;R
 </oddHeader>
-    <oddFooter>&amp;L&amp;G</oddFooter>
+    <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="16" max="1048575" man="1"/>

--- a/public/doc/물품구매요청서.xlsx
+++ b/public/doc/물품구매요청서.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부사장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대표이사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,6 +116,10 @@
   </si>
   <si>
     <t>물 품 구 매 요 청 서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -654,6 +654,186 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -662,186 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1170,144 +1170,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="59"/>
+    </row>
+    <row r="2" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="31" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="59"/>
+    </row>
+    <row r="4" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="72"/>
-    </row>
-    <row r="4" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="70"/>
-    </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="32" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
-    </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="67"/>
     </row>
     <row r="7" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="5"/>
@@ -1328,52 +1328,52 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="53" t="s">
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="K8" s="42"/>
+      <c r="L8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52" t="s">
+      <c r="M8" s="42"/>
+      <c r="N8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="79"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -1414,172 +1414,172 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
+      <c r="A18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="2"/>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="22" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="12"/>
@@ -1620,78 +1620,78 @@
       <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
+      <c r="A23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="79"/>
     </row>
     <row r="27" spans="1:16" ht="23.45" customHeight="1"/>
     <row r="28" spans="1:16" ht="23.45" customHeight="1"/>
@@ -1702,6 +1702,45 @@
     <protectedRange sqref="C5:E5 H5:J5 M5:P5 C6:P6 N7 A9:P9 D12:P14 D15:H15 D16:G16 D17:H20 I15:I20 K15:P20 J15:J18 J20" name="범위1"/>
   </protectedRanges>
   <mergeCells count="55">
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D13:P13"/>
+    <mergeCell ref="D12:P12"/>
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D15:P15"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A12:C14"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="D19:P19"/>
@@ -1718,45 +1757,6 @@
     <mergeCell ref="A15:C17"/>
     <mergeCell ref="A23:C26"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A12:C14"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D13:P13"/>
-    <mergeCell ref="D12:P12"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="D15:P15"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="D18:P18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.6692913385826772" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
